--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1885.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1885.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.728833985149459</v>
+        <v>1.467323064804077</v>
       </c>
       <c r="B1">
-        <v>4.491722960779519</v>
+        <v>1.715182065963745</v>
       </c>
       <c r="C1">
-        <v>3.664031788628811</v>
+        <v>2.641993284225464</v>
       </c>
       <c r="D1">
-        <v>1.034945999684364</v>
+        <v>5.037627220153809</v>
       </c>
       <c r="E1">
-        <v>0.6087687757247272</v>
+        <v>1.517630815505981</v>
       </c>
     </row>
   </sheetData>
